--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646937</v>
+        <v>572993.6190112259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.05951394</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>88.09081815943109</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>38.15774227325505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.39469600159723</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040576</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>165.1725371760946</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>77.08171901666373</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>88.09081815943087</v>
-      </c>
       <c r="Y5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>47.60797832237512</v>
       </c>
       <c r="T6" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W6" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,46 +1074,46 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>52.21594625443466</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.2395618453019</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50.04365252088313</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>48.00547107822035</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.29212650174169</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>153.2230134806008</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>243.2012226245566</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>33.37240945662846</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>205.1127822067379</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>229.796569204137</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.817218682477</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>106.344710964234</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>115.0138334144186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>173.5578851713662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>127.7656483913392</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>226.6014924540148</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>153.2230134806007</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>72.1250826267854</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>209.7083496784888</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.4702381038701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>115.0138334144184</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.30559602544865</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>16.32203054610746</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>153.947277094983</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>142.4274484045732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>28.03004253565345</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>80.91371583001869</v>
+        <v>174.7869190180874</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>61.47280792985688</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>194.9868712368892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>242.6596397053877</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>97.80685860554431</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>58.94788863247354</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>31.93582623762956</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>136.4159137733196</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.45803047044429</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>126.6623413033685</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>188.219639431212</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>20.09727819915733</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>127.3385186497847</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652792</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487946</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062749</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4334,46 +4336,46 @@
         <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652792</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652792</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652792</v>
+        <v>204.4218319897907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>392.4672266287277</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>218.0141973476007</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>69.07978768634942</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>713.3400294717467</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>562.056954026343</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>562.056954026343</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>562.056954026343</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V3" t="n">
-        <v>372.6371690098583</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W3" t="n">
-        <v>183.2173839933736</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X3" t="n">
-        <v>183.2173839933736</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897905</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="C5" t="n">
         <v>204.4218319897905</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897905</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
         <v>15.0020469733056</v>
@@ -4565,19 +4567,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123831</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
         <v>649.4845259985586</v>
@@ -4589,25 +4591,25 @@
         <v>750.1023486652803</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262259</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262259</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262259</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227604</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="Y5" t="n">
         <v>393.8416170062754</v>
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E6" t="n">
         <v>15.0020469733056</v>
@@ -4647,49 +4649,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L6" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N6" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R6" t="n">
         <v>750.1023486652803</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652803</v>
+        <v>702.0134816729822</v>
       </c>
       <c r="T6" t="n">
-        <v>583.2614020227604</v>
+        <v>702.0134816729822</v>
       </c>
       <c r="U6" t="n">
-        <v>583.2614020227604</v>
+        <v>702.0134816729822</v>
       </c>
       <c r="V6" t="n">
-        <v>583.2614020227604</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="W6" t="n">
-        <v>393.8416170062754</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4218319897905</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
         <v>15.0020469733056</v>
@@ -4759,16 +4761,16 @@
         <v>67.74542702829011</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1781.859986840531</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.897469900119</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.631771293369</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5844693663072</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.1341887702422</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161452</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511913</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2403.038273524209</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.038273524209</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1878.169188758594</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1509.206671818182</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1150.940973211432</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>765.1527206131875</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>354.16681582358</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5294,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734406</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758594</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1843.809051073444</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>1099.755099868449</v>
       </c>
       <c r="F17" t="n">
-        <v>66.5121164321834</v>
+        <v>688.7691950788414</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>273.6967449238379</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>173.9310163960562</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>173.9310163960562</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>173.9310163960562</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>173.9310163960562</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>173.9310163960562</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V19" t="n">
-        <v>804.7114165106914</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2942464737308</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X19" t="n">
-        <v>287.3046955757135</v>
+        <v>576.372060369826</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.5121164321834</v>
+        <v>355.5794812262959</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1453.669719097631</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.40402049088</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926361</v>
+        <v>1067.881466499387</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030285</v>
+        <v>656.895561709779</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8231115547755</v>
       </c>
       <c r="H20" t="n">
         <v>66.5121164321834</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>292.8940041101403</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>292.8940041101403</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
         <v>66.5121164321834</v>
@@ -5935,25 +5937,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T22" t="n">
-        <v>899.7166415493873</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U22" t="n">
-        <v>610.6137746750309</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V22" t="n">
-        <v>355.929286469144</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="X22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.5121164321834</v>
+        <v>439.7839516080506</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3096.715425190973</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2765.652537847403</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2765.652537847403</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>2392.186779586323</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.6287558445191</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="C25" t="n">
-        <v>216.6287558445191</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>516.0858781999624</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>368.1727846175693</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>221.2828371196589</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>699.1203903877109</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W25" t="n">
-        <v>626.2667715727762</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X25" t="n">
-        <v>398.2772206747588</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y25" t="n">
-        <v>398.2772206747588</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1959.379186075721</v>
+        <v>1844.338003964586</v>
       </c>
       <c r="C26" t="n">
-        <v>1590.416669135309</v>
+        <v>1475.375487024174</v>
       </c>
       <c r="D26" t="n">
-        <v>1232.150970528558</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>731.3215358191796</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>320.3356310295721</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.97538618064</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y26" t="n">
-        <v>1959.379186075721</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.0996507379417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>377.0996507379417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>377.0996507379417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>377.0996507379417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>230.2097032400314</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>377.0996507379417</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>377.0996507379417</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.0996507379417</v>
+        <v>182.6877057396768</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3309.118922067648</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3055.588445341484</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2724.525557997913</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2371.756902727799</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>1998.291144466719</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y29" t="n">
-        <v>1608.151812490907</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6539,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031477</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6655,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>637.8893433338602</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.0967641903301</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2011.826014609889</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C32" t="n">
-        <v>1642.863497669478</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D32" t="n">
-        <v>1284.597799062727</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E32" t="n">
-        <v>898.809546464483</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="F32" t="n">
-        <v>487.8236416748754</v>
+        <v>243.064559884797</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649823</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2788.565186649823</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2788.565186649823</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y32" t="n">
-        <v>2398.425854674011</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.8974549201677</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C34" t="n">
-        <v>523.9612719922608</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D34" t="n">
-        <v>373.844632579925</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E34" t="n">
-        <v>225.9315389975319</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="F34" t="n">
-        <v>225.9315389975319</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="G34" t="n">
-        <v>225.9315389975319</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>692.8974549201677</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.8974549201677</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218343</v>
@@ -6935,22 +6937,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6971,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7016,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2936.96350184318</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>2936.96350184318</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>2786.846862430845</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>2638.933768848452</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.933768848452</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435998</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y37" t="n">
-        <v>2936.96350184318</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2303.170539913434</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,10 +7192,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3020.833267321127</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2689.770379977556</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>2689.770379977556</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>2689.770379977556</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y38" t="n">
-        <v>2689.770379977556</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3143.957356778932</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C40" t="n">
-        <v>2975.021173851025</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D40" t="n">
-        <v>2824.904534438689</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E40" t="n">
-        <v>2676.991440856296</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F40" t="n">
-        <v>2676.991440856296</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G40" t="n">
-        <v>2617.448119005312</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3293.347411268131</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3101.661527094957</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>3101.661527094957</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>3101.661527094957</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>3101.661527094957</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>3101.661527094957</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>2873.671976196939</v>
       </c>
       <c r="Y40" t="n">
-        <v>3325.605821609171</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.181533884357</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>1565.219016943946</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1206.953318337195</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2071.97538618064</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>214.4252100145765</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C43" t="n">
-        <v>214.4252100145765</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>792.9452469258936</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>503.8423800515371</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>503.8423800515371</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>214.4252100145765</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>214.4252100145765</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.4252100145765</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7646,25 +7648,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3135.484973698856</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2782.716318428742</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.23093222317</v>
+        <v>3054.126899536459</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.23093222317</v>
+        <v>2885.190716608553</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.23093222317</v>
+        <v>2735.074077196217</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>2735.074077196217</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>2735.074077196217</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>2714.773796186967</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="I46" t="n">
         <v>2471.23093222317</v>
@@ -7828,28 +7830,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T46" t="n">
-        <v>3196.981055296258</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U46" t="n">
-        <v>3196.981055296258</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V46" t="n">
-        <v>2942.296567090371</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="W46" t="n">
-        <v>2652.87939705341</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="X46" t="n">
-        <v>2652.87939705341</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="Y46" t="n">
-        <v>2652.87939705341</v>
+        <v>3235.775364366699</v>
       </c>
     </row>
   </sheetData>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>261.1501505579819</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>119.4873381821459</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.03819962686598</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22720,16 +22722,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784843</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22768,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346023</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22838,7 +22840,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893569</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>281.6402825190382</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,25 +22913,25 @@
         <v>72.43289562846316</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>102.1622663685745</v>
       </c>
       <c r="T6" t="n">
-        <v>30.23706061590659</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W6" t="n">
         <v>64.16939599459954</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>73.491273516432</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
         <v>57.06999962825414</v>
@@ -22999,7 +23001,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693934</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>277.6908082269599</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>151.7212889301275</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>44.45716074097201</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>30.23706061590647</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="10">
@@ -23188,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>97.41557694471089</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>114.7859889482795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4417151617389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>133.2999848559902</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>35.8021578715225</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>253.1505888799625</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>89.49498218058253</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23789,7 +23791,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>97.9556892659979</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>59.68109729479418</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23947,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>137.1238099094094</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>121.0498792159543</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>16.9893665229816</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>24.39367950488713</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>12.80279477842751</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,19 +24417,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>214.3979157098056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>201.2133759749646</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7677005521836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751887</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>148.7202122335796</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24655,19 +24657,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24731,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>187.5959395935127</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>215.783823583486</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>23.59835985445503</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>197.6796128533837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>330.0080098234347</v>
+        <v>236.134806635366</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>83.2822069844639</v>
+        <v>13.20280207305169</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>24.56207803928004</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>164.2164060363238</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>153.1883133533577</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>107.0779196265547</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>56.99632643241777</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>246.3179278901609</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>111.5677777885839</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>92.88660797280069</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25922,10 +25924,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>139.5326190389229</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>145.9285300598709</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>92.21043062638451</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061954</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903118</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>158307.6623238766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>158307.6623238766</v>
+      </c>
+      <c r="D2" t="n">
         <v>158307.6623238765</v>
       </c>
-      <c r="C2" t="n">
-        <v>158307.6623238765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245340.6184784386</v>
-      </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003121</v>
       </c>
       <c r="G2" t="n">
         <v>312588.928500312</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487658</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="C4" t="n">
         <v>137.8001180723342</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266546</v>
+        <v>-490172.840726655</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941903</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514463</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699763</v>
+        <v>-389436.702683755</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>237697.9409499127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="I6" t="n">
         <v>237697.9409499123</v>
-      </c>
-      <c r="G6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="H6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237697.9409499124</v>
       </c>
       <c r="J6" t="n">
         <v>188632.9962213677</v>
@@ -26549,19 +26551,19 @@
         <v>237697.9409499123</v>
       </c>
       <c r="L6" t="n">
-        <v>147954.5628186421</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="M6" t="n">
-        <v>165606.5883338263</v>
+        <v>77241.49908203486</v>
       </c>
       <c r="N6" t="n">
         <v>237697.9409499123</v>
       </c>
       <c r="O6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="P6" t="n">
         <v>237697.9409499124</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499122</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247793</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663202</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>643.8758682359728</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>354.5893695598431</v>
-      </c>
-      <c r="E4" t="n">
-        <v>289.2864986761293</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663202</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32233,7 +32235,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
         <v>557.281137600381</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33260,10 +33262,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34138,7 +34140,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490575</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
         <v>781.7148990095023</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34387,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781694</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38035,7 +38037,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112259</v>
+        <v>515726.6621658592</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13457750.93737234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951394</v>
+        <v>8069928.549690008</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8736382.483754998</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>187.5255871663202</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>88.09081815943109</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.15774227325505</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>165.1725371760947</v>
+      </c>
+      <c r="V3" t="n">
         <v>187.5255871663202</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="X4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0.02307145248668011</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>47.60797832237512</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663201</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>162.8648074440586</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>165.1725371760947</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663201</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663201</v>
+        <v>121.4444220838575</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>36.86350000479524</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>153.2230134806008</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>125.013218029322</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.37240945662846</v>
+        <v>234.5467275679069</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>147.0094990618351</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>205.1127822067379</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.9676506761499</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>106.344710964234</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>65.87253731645575</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>173.5578851713662</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>127.7656483913392</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>239.3348485454004</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>188.219639431212</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>70.98145907397827</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>153.2230134806007</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.95866062611017</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212308</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>209.7083496784888</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.0138334144184</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>81.46084344268587</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>129.0278256233129</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>153.947277094983</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4274484045732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>54.45803047044483</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>290.5707887795469</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>174.7869190180874</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044483</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>80.31859933869448</v>
       </c>
       <c r="G35" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>19.52918235370657</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>242.6596397053877</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>214.8758999374369</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851115</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>31.93582623762956</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>173.2057702920258</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.45803047044429</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>101.890756684063</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.09727819915733</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330562</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="E2" t="n">
         <v>15.00204697330562</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262266</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262266</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262266</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262266</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227609</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062758</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897907</v>
+        <v>371.2627786323106</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4672266287277</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>218.0141973476007</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>69.07978768634942</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330562</v>
@@ -4442,19 +4442,19 @@
         <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487957</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487957</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487957</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487957</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487957</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4527,7 +4527,7 @@
         <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
         <v>15.00204697330562</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062754</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897905</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U5" t="n">
-        <v>583.2614020227604</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V5" t="n">
-        <v>583.2614020227604</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227604</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062754</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062754</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323.1739116400124</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="C6" t="n">
-        <v>323.1739116400124</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="D6" t="n">
-        <v>174.2395019787611</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="S6" t="n">
-        <v>702.0134816729822</v>
+        <v>598.819273219877</v>
       </c>
       <c r="T6" t="n">
-        <v>702.0134816729822</v>
+        <v>409.3994882033919</v>
       </c>
       <c r="U6" t="n">
-        <v>702.0134816729822</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V6" t="n">
-        <v>512.5936966564973</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W6" t="n">
-        <v>323.1739116400124</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="X6" t="n">
-        <v>323.1739116400124</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="Y6" t="n">
-        <v>323.1739116400124</v>
+        <v>30.55991817042178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487954</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487954</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487954</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323105</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F8" t="n">
-        <v>371.2627786323105</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678506</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058967</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123833</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652803</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652803</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652803</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652803</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652803</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652803</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652803</v>
+        <v>1209.105870866357</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652803</v>
+        <v>1209.105870866357</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>523.5942387977906</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.1341887702422</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017068</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652804</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652804</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652804</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>583.2614020227604</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U9" t="n">
-        <v>583.2614020227604</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V9" t="n">
-        <v>393.8416170062754</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W9" t="n">
-        <v>393.8416170062754</v>
+        <v>854.0256709807825</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4218319897905</v>
+        <v>731.3545375627446</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>523.5942387977906</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829011</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829011</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829011</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230183</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170729</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396353</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829011</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392149</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324644</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C13" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V13" t="n">
-        <v>666.2025176122982</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W13" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X13" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y13" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V14" t="n">
-        <v>3155.791869823214</v>
+        <v>3089.039175328869</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2736.270520058755</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5378,7 +5378,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125857</v>
@@ -5387,16 +5387,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.6287558445192</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C16" t="n">
-        <v>216.6287558445192</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877115</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877115</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877115</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W16" t="n">
-        <v>665.4108858860666</v>
+        <v>462.2045039554818</v>
       </c>
       <c r="X16" t="n">
-        <v>437.4213349880492</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.6287558445192</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2212.771568013855</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C17" t="n">
-        <v>1843.809051073444</v>
+        <v>1015.867262682234</v>
       </c>
       <c r="D17" t="n">
-        <v>1485.543352466693</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>1099.755099868449</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>688.7691950788414</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>273.6967449238379</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5515,22 +5515,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339057</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077977</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y17" t="n">
-        <v>2599.371408077977</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.9310163960562</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C19" t="n">
-        <v>173.9310163960562</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="D19" t="n">
-        <v>173.9310163960562</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="E19" t="n">
-        <v>173.9310163960562</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>173.9310163960562</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218343</v>
@@ -5697,28 +5697,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X19" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.5794812262959</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038042</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097631</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>1453.669719097631</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>1067.881466499387</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>656.895561709779</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>241.8231115547755</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102164</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>439.7839516080506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>439.7839516080506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>439.7839516080506</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>439.7839516080506</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>292.8940041101403</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>292.8940041101403</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
@@ -5937,25 +5937,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>729.2011216450112</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W22" t="n">
-        <v>439.7839516080506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X22" t="n">
-        <v>439.7839516080506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y22" t="n">
-        <v>439.7839516080506</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038044</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097632</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490882</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926375</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030299</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6001,16 +6001,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6022,19 +6022,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2669.314014030367</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>516.0858781999624</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>368.1727846175693</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>221.2828371196589</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V25" t="n">
-        <v>666.2025176122982</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W25" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X25" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1844.338003964586</v>
+        <v>1477.112184968823</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.375487024174</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D26" t="n">
-        <v>1117.109788417424</v>
+        <v>749.8839694216605</v>
       </c>
       <c r="E26" t="n">
-        <v>731.3215358191796</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>320.3356310295721</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265599</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X26" t="n">
-        <v>2621.07717600452</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.937844028708</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X28" t="n">
-        <v>403.4802848832069</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y28" t="n">
-        <v>182.6877057396768</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.624422581789</v>
+        <v>1792.126722677733</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1423.164205737321</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1064.898507130571</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.763754557601</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y29" t="n">
-        <v>1636.624422581789</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.8870058181849</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>751.950822890278</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>601.8341834779422</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.8870058181849</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221567</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.316163281155</v>
+        <v>1015.867262682234</v>
       </c>
       <c r="D32" t="n">
-        <v>654.0504646744046</v>
+        <v>657.6015640754838</v>
       </c>
       <c r="E32" t="n">
-        <v>654.0504646744046</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>243.064559884797</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.0178522615</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285688</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.445961844415</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="C34" t="n">
-        <v>349.5097789165081</v>
+        <v>121.5202280184913</v>
       </c>
       <c r="D34" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y34" t="n">
-        <v>700.0944266746548</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1675.730933054507</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1306.768416114095</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>948.5027175073449</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>562.7144649091006</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218343</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7095,52 +7095,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="X37" t="n">
-        <v>920.887005818185</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1881.708680670284</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C38" t="n">
-        <v>1512.746163729872</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D38" t="n">
-        <v>1154.480465123122</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E38" t="n">
-        <v>768.6922125248775</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2268.308520734406</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
@@ -7250,16 +7250,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3293.347411268131</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3101.661527094957</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T40" t="n">
-        <v>3101.661527094957</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U40" t="n">
-        <v>3101.661527094957</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V40" t="n">
-        <v>3101.661527094957</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W40" t="n">
-        <v>3101.661527094957</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="X40" t="n">
-        <v>2873.671976196939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y40" t="n">
-        <v>2652.879397053409</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.5121164321834</v>
@@ -7414,13 +7414,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7602,19 +7602,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W43" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X43" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y43" t="n">
-        <v>472.1048757766374</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3054.126899536459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>2885.190716608553</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>2735.074077196217</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>2735.074077196217</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>2735.074077196217</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>2714.773796186967</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>3235.775364366699</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>3235.775364366699</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>3235.775364366699</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X46" t="n">
-        <v>3235.775364366699</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y46" t="n">
-        <v>3235.775364366699</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.757832896167</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>261.1501505579819</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>119.4873381821459</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377072</v>
+        <v>60.69123123399618</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -22728,7 +22728,7 @@
         <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>14.10430989402845</v>
@@ -22749,7 +22749,7 @@
         <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821562</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4937091346023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>216.757832896167</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666373</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22840,16 +22840,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>85.99672338893569</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6220090029143</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22886,7 +22886,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
-        <v>102.1622663685745</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459954</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22959,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -22998,10 +22998,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390155</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693934</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971605</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059417</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301275</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>206.8662932344104</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846316</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>30.23706061590647</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831052</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715741</v>
+        <v>84.32856311961994</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.1571086109843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23184,28 +23184,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>114.7859889482795</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>116.8593460514771</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825414</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159722</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>345.8703416586853</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,16 +23469,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2999848559902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.8021578715225</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>202.7390404408129</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>253.1505888799625</v>
+        <v>51.97627076868415</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>207.6735425588479</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>89.49498218058253</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23785,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>10.46631197041924</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>59.68109729479418</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23949,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>316.8613043470248</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>121.0498792159543</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.9893665229816</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24186,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>12.80279477842763</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7020862222414</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>278.2595096434347</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>12.80279477842751</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>198.590288650059</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>163.5503731422498</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>201.2133759749646</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.81814676751887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24657,10 +24657,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>204.750994762927</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>252.9025444489489</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>215.783823583486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>23.59835985445503</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>165.0909188057244</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>91.35958129271489</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>236.134806635366</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>94.15744254776753</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>13.20280207305169</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>326.557446403017</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>266.9938159828844</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>164.2164060363238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>196.0458257160165</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.99632643241777</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>108.3081818887566</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>192.0671214789818</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>111.5677777885839</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>149.104415274839</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.9285300598709</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061954</v>
+        <v>438432.6804772893</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061953</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238766</v>
+        <v>161920.7630358595</v>
       </c>
       <c r="C2" t="n">
         <v>158307.6623238766</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="G2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="F2" t="n">
-        <v>312588.9285003121</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="J2" t="n">
         <v>312588.928500312</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="I2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="J2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003117</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487657</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336675</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.9447285448</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127023</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>72091.35261608614</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3941.064025422732</v>
+      </c>
+      <c r="C4" t="n">
         <v>137.8001180723343</v>
       </c>
-      <c r="C4" t="n">
-        <v>137.8001180723342</v>
-      </c>
       <c r="D4" t="n">
-        <v>137.8001180723342</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26438,19 +26438,19 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26475,37 +26475,37 @@
         <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.840726655</v>
+        <v>-502366.9027456897</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941907</v>
+        <v>88989.99977515606</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-219414.6903676091</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.702683755</v>
+        <v>-42406.80019516719</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499127</v>
+        <v>233623.9455717429</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.0008431981</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>143880.5674404725</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203486</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.945571743</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717427</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26758,19 +26758,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247792</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663206</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
         <v>280.472093452864</v>
@@ -31296,28 +31296,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061602</v>
@@ -31363,43 +31363,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31454,7 +31454,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
         <v>151.3507297604415</v>
@@ -31466,19 +31466,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32478,7 +32478,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623188</v>
       </c>
       <c r="M20" t="n">
         <v>769.2673490574995</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
         <v>117.5966053606292</v>
@@ -35026,16 +35026,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646083</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061158</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520832</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M25" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M28" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M31" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O31" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M37" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
